--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3353.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3353.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.21671768580975</v>
+        <v>2.448244571685791</v>
       </c>
       <c r="B1">
-        <v>2.737909490888127</v>
+        <v>3.487921237945557</v>
       </c>
       <c r="C1">
-        <v>6.574296718580418</v>
+        <v>2.740448236465454</v>
       </c>
       <c r="D1">
-        <v>2.136714132196465</v>
+        <v>2.265465974807739</v>
       </c>
       <c r="E1">
-        <v>1.166584445079271</v>
+        <v>1.609159350395203</v>
       </c>
     </row>
   </sheetData>
